--- a/xlsx/幸福_intext.xlsx
+++ b/xlsx/幸福_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%A8%82</t>
   </si>
   <si>
-    <t>快樂</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_幸福</t>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_幸福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F%E9%82%A8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F%E8%BB%8A%E7%AB%99_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>幸福車站 (日本)</t>
+    <t>幸福车站 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F_(EP)</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%A5%95%E8%BF%85</t>
   </si>
   <si>
-    <t>陳奕迅</t>
+    <t>陈奕迅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%87%B1%E8%8A%B9</t>
   </si>
   <si>
-    <t>黃凱芹</t>
+    <t>黄凯芹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F_(%E5%96%AE%E6%9B%B2)</t>
   </si>
   <si>
-    <t>幸福 (單曲)</t>
+    <t>幸福 (单曲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%B4%BB%E9%88%9E</t>
   </si>
   <si>
-    <t>胡鴻鈞</t>
+    <t>胡鸿钧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F_(Red_Velvet%E5%8D%95%E6%9B%B2)</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>幸福 (電視劇)</t>
+    <t>幸福 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SBS%E9%80%B1%E6%9C%AB%E5%8A%87%E5%A0%B4</t>
   </si>
   <si>
-    <t>SBS週末劇場</t>
+    <t>SBS周末剧场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8FOnline</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F%E9%86%AB%E8%97%A5</t>
   </si>
   <si>
-    <t>幸福醫藥</t>
+    <t>幸福医药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%BE%8E%E5%AF%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>奇美實業</t>
+    <t>奇美实业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>信義房屋</t>
+    <t>信义房屋</t>
   </si>
 </sst>
 </file>
